--- a/modele.xlsx
+++ b/modele.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSON\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBC03C7-C0B4-430A-9F0B-49A5A91CDB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48EF8B-ECD4-4B5C-890A-8660DCEE62D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="17870" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="0" windowWidth="17870" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NumberofFloors</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Neighborhood</t>
-  </si>
-  <si>
-    <t>largestUseType_encode</t>
-  </si>
-  <si>
-    <t>BuildingAge</t>
   </si>
 </sst>
 </file>
@@ -426,15 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N5" sqref="L1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="8.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,14 +465,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -509,14 +500,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -549,12 +534,6 @@
       </c>
       <c r="K3">
         <v>2</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
